--- a/report.xlsx
+++ b/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>Biplob</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -400,6 +406,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Biplob</t>
+  </si>
+  <si>
+    <t>New row</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -366,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -390,7 +402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -398,7 +410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -406,7 +418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -414,12 +426,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -51,7 +51,13 @@
     <t>more</t>
   </si>
   <si>
-    <t>value</t>
+    <t>another</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>information</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -450,7 +456,15 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
